--- a/data/labeled_claims/prevalence_of_undernourisment_claims.xlsx
+++ b/data/labeled_claims/prevalence_of_undernourisment_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="160">
   <si>
     <t>China 46.6 % , Italy 8.8 % , France 8.1 % , Cote dIvoire &lt;number&gt;5.1&lt;/number&gt; % , Spain 4.6 % , &lt;location&gt;Japan&lt;/location&gt; 4.5 % , Belgium 4.3 % , Netherlands 4 % -LRB- 2011 -RRB-</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>extracted_value</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -899,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,6 +916,9 @@
       <c r="A1" t="s">
         <v>154</v>
       </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
       <c r="C1" t="s">
         <v>155</v>
       </c>

--- a/data/labeled_claims/prevalence_of_undernourisment_claims.xlsx
+++ b/data/labeled_claims/prevalence_of_undernourisment_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="161">
   <si>
     <t>China 46.6 % , Italy 8.8 % , France 8.1 % , Cote dIvoire &lt;number&gt;5.1&lt;/number&gt; % , Spain 4.6 % , &lt;location&gt;Japan&lt;/location&gt; 4.5 % , Belgium 4.3 % , Netherlands 4 % -LRB- 2011 -RRB-</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,6 +931,9 @@
       <c r="F1" t="s">
         <v>157</v>
       </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
       <c r="I1" t="s">
         <v>158</v>
       </c>
